--- a/precios-costos-compras-ventas.xlsx
+++ b/precios-costos-compras-ventas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14840" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14860" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Precios" sheetId="1" r:id="rId1"/>
@@ -13,10 +13,11 @@
     <sheet name="Ventas" sheetId="3" r:id="rId4"/>
     <sheet name="Calculos" sheetId="5" r:id="rId5"/>
     <sheet name="Costos" sheetId="6" r:id="rId6"/>
+    <sheet name="Clientes" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Ventas!$B$3:$G$16</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="3">Ventas!$G$4:$G$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Ventas!$B$3:$G$23</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="3">Ventas!$G$4:$G$23</definedName>
     <definedName name="_xlnm.Extract" localSheetId="3">Ventas!#REF!</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="67">
   <si>
     <t>Ostion c/c (bolsa)</t>
   </si>
@@ -154,6 +155,9 @@
     <t>Litros</t>
   </si>
   <si>
+    <t>Column1</t>
+  </si>
+  <si>
     <t>Proveedor</t>
   </si>
   <si>
@@ -164,13 +168,76 @@
   </si>
   <si>
     <t>Belén Torres</t>
+  </si>
+  <si>
+    <t>Maca Cornejo</t>
+  </si>
+  <si>
+    <t>chesterton 8181</t>
+  </si>
+  <si>
+    <t>Ricardo Peruano</t>
+  </si>
+  <si>
+    <t>Rodrigo Quezada</t>
+  </si>
+  <si>
+    <t>Clientes</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Dirección</t>
+  </si>
+  <si>
+    <t>Teléfono</t>
+  </si>
+  <si>
+    <t>Correo</t>
+  </si>
+  <si>
+    <t>Benjamin subercaseaux 9863, casa c, La Reina</t>
+  </si>
+  <si>
+    <t>Lota 2533 depto 22 Providencia</t>
+  </si>
+  <si>
+    <t>scecchini@hotmail.com</t>
+  </si>
+  <si>
+    <t>Onofre Jarpa 10221, La Reina</t>
+  </si>
+  <si>
+    <t>Maria Monvel #?, La Reina</t>
+  </si>
+  <si>
+    <t>francisco de villagra 327</t>
+  </si>
+  <si>
+    <t>mackarena.cornejov@gmail.com</t>
+  </si>
+  <si>
+    <t>ricardo</t>
+  </si>
+  <si>
+    <t>Carol Nuñez</t>
+  </si>
+  <si>
+    <t>carolq.nunezb@gmail.com</t>
+  </si>
+  <si>
+    <t>monte olimpo 1405</t>
+  </si>
+  <si>
+    <t>rbeneyto@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -233,6 +300,18 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF555555"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -393,7 +472,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="171">
+  <cellStyleXfs count="186">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -565,8 +644,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -598,13 +692,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="185"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="185" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="171">
+  <cellStyles count="186">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -690,6 +791,13 @@
     <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -775,6 +883,14 @@
     <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="31">
@@ -1299,23 +1415,24 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Ventas" displayName="Ventas" ref="B3:G16" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16" totalsRowBorderDxfId="15">
-  <autoFilter ref="B3:G16"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Ventas" displayName="Ventas" ref="B3:H23" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16" totalsRowBorderDxfId="15">
+  <autoFilter ref="B3:H23"/>
+  <tableColumns count="7">
     <tableColumn id="1" name="Cliente" dataDxfId="14"/>
     <tableColumn id="2" name="Producto" dataDxfId="13"/>
     <tableColumn id="3" name="Cantidad" dataDxfId="12"/>
     <tableColumn id="4" name="Fecha" dataDxfId="11"/>
     <tableColumn id="5" name="Estado Pago" dataDxfId="10"/>
     <tableColumn id="6" name="Estado Entrega" dataDxfId="9"/>
+    <tableColumn id="7" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B3:H6" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
-  <autoFilter ref="B3:H6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B3:H7" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
+  <autoFilter ref="B3:H7"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Producto" dataDxfId="5"/>
     <tableColumn id="2" name="Cantidad" dataDxfId="4"/>
@@ -1326,6 +1443,19 @@
     <tableColumn id="6" name="Estado Pago"/>
     <tableColumn id="7" name="Proveedor"/>
     <tableColumn id="4" name="Fecha" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="B3:E12" totalsRowShown="0">
+  <autoFilter ref="B3:E12"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Nombre"/>
+    <tableColumn id="2" name="Dirección"/>
+    <tableColumn id="3" name="Teléfono"/>
+    <tableColumn id="4" name="Correo"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1656,7 +1786,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1702,7 +1832,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="B5" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" s="15">
         <v>10500</v>
@@ -1779,7 +1909,7 @@
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17" s="3">
         <v>6750</v>
@@ -1849,7 +1979,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1919,7 +2049,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="B6" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C6" s="3">
         <v>10</v>
@@ -1928,7 +2058,7 @@
         <v>42831</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2062,7 +2192,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2091,7 +2221,7 @@
       </c>
       <c r="C4" s="22">
         <f>SUMIF(Compras[Producto], Insumos!F4, Compras[Cantidad])-SUMIF(Ventas[Producto], Inventario!B4, Ventas[Cantidad])</f>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2100,16 +2230,16 @@
       </c>
       <c r="C5" s="22">
         <f>SUMIF(Compras[Producto], Insumos!F5, Compras[Cantidad])-SUMIF(Ventas[Producto], Inventario!B5, Ventas[Cantidad])</f>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="B6" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C6" s="22">
         <f>SUMIF(Compras[Producto], Insumos!F6, Compras[Cantidad])-SUMIF(Ventas[Producto], Inventario!B6, Ventas[Cantidad])</f>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2118,7 +2248,7 @@
       </c>
       <c r="C7" s="22">
         <f>SUMIF(Compras[Producto], Insumos!F7, Compras[Cantidad])-SUMIF(Ventas[Producto], Inventario!B7, Ventas[Cantidad])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2127,7 +2257,7 @@
       </c>
       <c r="C8" s="22">
         <f>SUMIF(Compras[Producto], Insumos!F8, Compras[Cantidad])-SUMIF(Ventas[Producto], Inventario!B8, Ventas[Cantidad])</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2136,7 +2266,7 @@
       </c>
       <c r="C9" s="22">
         <f>SUMIF(Compras[Producto], Insumos!F9, Compras[Cantidad])-SUMIF(Ventas[Producto], Inventario!B9, Ventas[Cantidad])</f>
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2181,10 +2311,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2201,12 +2331,12 @@
     <col min="17" max="17" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18">
+    <row r="1" spans="1:8" ht="18">
       <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="B3" s="14" t="s">
         <v>19</v>
       </c>
@@ -2225,8 +2355,11 @@
       <c r="G3" s="16" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="B4" s="10" t="s">
         <v>13</v>
       </c>
@@ -2246,7 +2379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="B5" s="11" t="s">
         <v>21</v>
       </c>
@@ -2266,7 +2399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="B6" s="11" t="s">
         <v>21</v>
       </c>
@@ -2286,7 +2419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="B7" s="17" t="s">
         <v>21</v>
       </c>
@@ -2306,7 +2439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="B8" s="17" t="s">
         <v>22</v>
       </c>
@@ -2326,7 +2459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="B9" s="17" t="s">
         <v>23</v>
       </c>
@@ -2346,7 +2479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="B10" s="17" t="s">
         <v>37</v>
       </c>
@@ -2366,11 +2499,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="B11" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="30" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="18">
@@ -2386,7 +2519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="B12" s="17" t="s">
         <v>37</v>
       </c>
@@ -2406,7 +2539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="B13" s="17" t="s">
         <v>37</v>
       </c>
@@ -2426,7 +2559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8">
       <c r="B14" s="17" t="s">
         <v>13</v>
       </c>
@@ -2434,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" s="19">
         <v>43014</v>
@@ -2446,9 +2579,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8">
       <c r="B15" s="17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>3</v>
@@ -2463,12 +2596,12 @@
         <v>0</v>
       </c>
       <c r="G15" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="B16" s="17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>7</v>
@@ -2483,8 +2616,155 @@
         <v>0</v>
       </c>
       <c r="G16" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="18">
+        <v>1</v>
+      </c>
+      <c r="E17" s="19">
+        <v>43014</v>
+      </c>
+      <c r="F17" s="18">
         <v>0</v>
       </c>
+      <c r="G17" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="18">
+        <v>2</v>
+      </c>
+      <c r="E18" s="19">
+        <v>43014</v>
+      </c>
+      <c r="F18" s="18">
+        <v>0</v>
+      </c>
+      <c r="G18" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="18">
+        <v>1</v>
+      </c>
+      <c r="E19" s="19">
+        <v>43014</v>
+      </c>
+      <c r="F19" s="18">
+        <v>1</v>
+      </c>
+      <c r="G19" s="20">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="18">
+        <v>1</v>
+      </c>
+      <c r="E20" s="19">
+        <v>43014</v>
+      </c>
+      <c r="F20" s="18">
+        <v>0</v>
+      </c>
+      <c r="G20" s="20">
+        <v>1</v>
+      </c>
+      <c r="H20" s="24"/>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="18">
+        <v>1</v>
+      </c>
+      <c r="E21" s="19">
+        <v>43014</v>
+      </c>
+      <c r="F21" s="18">
+        <v>0</v>
+      </c>
+      <c r="G21" s="20">
+        <v>1</v>
+      </c>
+      <c r="H21" s="24"/>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="18">
+        <v>1</v>
+      </c>
+      <c r="E22" s="19">
+        <v>43014</v>
+      </c>
+      <c r="F22" s="18">
+        <v>0</v>
+      </c>
+      <c r="G22" s="20">
+        <v>1</v>
+      </c>
+      <c r="H22" s="24"/>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="18">
+        <v>1</v>
+      </c>
+      <c r="E23" s="19">
+        <v>43014</v>
+      </c>
+      <c r="F23" s="18">
+        <v>0</v>
+      </c>
+      <c r="G23" s="20">
+        <v>1</v>
+      </c>
+      <c r="H23" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2505,7 +2785,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2545,7 +2825,7 @@
       </c>
       <c r="I3" s="3">
         <f>SUM(Table4[Total costo])</f>
-        <v>46875</v>
+        <v>48825</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2561,7 +2841,7 @@
       </c>
       <c r="F4" s="3">
         <f>SUMIF(Ventas[Producto],Calculos!E4,Ventas[Cantidad])*Precios!C4</f>
-        <v>27800</v>
+        <v>41700</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2593,7 +2873,7 @@
       </c>
       <c r="F6" s="3">
         <f>SUMIF(Ventas[Producto],Calculos!E6,Ventas[Cantidad])*Precios!C6</f>
-        <v>34500</v>
+        <v>48300</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2609,7 +2889,7 @@
       </c>
       <c r="F7" s="3">
         <f>SUMIF(Ventas[Producto],Calculos!E7,Ventas[Cantidad])*Precios!C7</f>
-        <v>62100</v>
+        <v>82800</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2625,7 +2905,7 @@
       </c>
       <c r="F8" s="3">
         <f>SUMIF(Ventas[Producto],Calculos!E8,Ventas[Cantidad])*Precios!C8</f>
-        <v>19800</v>
+        <v>39600</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2677,28 +2957,28 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="18">
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="32" t="s">
         <v>34</v>
       </c>
       <c r="C12" s="3">
         <f>SUM(C3:C11)</f>
         <v>557500</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="32" t="s">
         <v>34</v>
       </c>
       <c r="F12" s="3">
         <f>SUM(F3:F11)</f>
-        <v>176600</v>
+        <v>244800</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="30">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="32">
+      <c r="B17" s="33">
         <f>F12-C12-I3</f>
-        <v>-427775</v>
+        <v>-361525</v>
       </c>
       <c r="C17" t="s">
         <v>36</v>
@@ -2717,10 +2997,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2758,7 +3038,7 @@
         <v>17</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H3" s="15" t="s">
         <v>16</v>
@@ -2785,9 +3065,9 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" s="30">
+        <v>43</v>
+      </c>
+      <c r="H4" s="31">
         <v>42831</v>
       </c>
       <c r="K4" s="3" t="s">
@@ -2813,9 +3093,9 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="30">
+        <v>43</v>
+      </c>
+      <c r="H5" s="31">
         <v>42892</v>
       </c>
       <c r="K5" s="3" t="s">
@@ -2844,10 +3124,34 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" s="30">
+        <v>43</v>
+      </c>
+      <c r="H6" s="31">
         <v>42953</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="B7" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="18">
+        <v>2.6</v>
+      </c>
+      <c r="D7" s="20">
+        <v>750</v>
+      </c>
+      <c r="E7" s="35">
+        <f>Table4[[#This Row],[Costo / unidad]]*Table4[[#This Row],[Cantidad]]</f>
+        <v>1950</v>
+      </c>
+      <c r="F7" s="24">
+        <v>0</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="36">
+        <v>43014</v>
       </c>
     </row>
   </sheetData>
@@ -2862,4 +3166,161 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="43.1640625" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="23.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18">
+      <c r="A1" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4">
+        <v>5622751654</v>
+      </c>
+      <c r="E4" s="37"/>
+    </row>
+    <row r="5" spans="1:5" ht="16">
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5">
+        <v>56992255106</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="B8" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24">
+        <v>56966459117</v>
+      </c>
+      <c r="E8" s="24"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="B10" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="24">
+        <v>56952088520</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="B11" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="24">
+        <v>56982834821</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="B12" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="24">
+        <v>56990409538</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E10" r:id="rId1"/>
+    <hyperlink ref="E11" r:id="rId2"/>
+    <hyperlink ref="E12" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId4"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/precios-costos-compras-ventas.xlsx
+++ b/precios-costos-compras-ventas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14860" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14640" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Precios" sheetId="1" r:id="rId1"/>
@@ -16,8 +16,8 @@
     <sheet name="Clientes" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Ventas!$B$3:$G$23</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="3">Ventas!$G$4:$G$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Ventas!$B$3:$G$27</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="3">Ventas!$G$4:$G$27</definedName>
     <definedName name="_xlnm.Extract" localSheetId="3">Ventas!#REF!</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="83">
   <si>
     <t>Ostion c/c (bolsa)</t>
   </si>
@@ -155,9 +155,6 @@
     <t>Litros</t>
   </si>
   <si>
-    <t>Column1</t>
-  </si>
-  <si>
     <t>Proveedor</t>
   </si>
   <si>
@@ -176,9 +173,6 @@
     <t>chesterton 8181</t>
   </si>
   <si>
-    <t>Ricardo Peruano</t>
-  </si>
-  <si>
     <t>Rodrigo Quezada</t>
   </si>
   <si>
@@ -218,9 +212,6 @@
     <t>mackarena.cornejov@gmail.com</t>
   </si>
   <si>
-    <t>ricardo</t>
-  </si>
-  <si>
     <t>Carol Nuñez</t>
   </si>
   <si>
@@ -231,6 +222,63 @@
   </si>
   <si>
     <t>rbeneyto@gmail.com</t>
+  </si>
+  <si>
+    <t>Dario Urzua 2161 depto 603</t>
+  </si>
+  <si>
+    <t>iperez@typauditores.cl</t>
+  </si>
+  <si>
+    <t>manuel novoa 591</t>
+  </si>
+  <si>
+    <t>danielbyrnep@gmail.com</t>
+  </si>
+  <si>
+    <t>las vertientes 958</t>
+  </si>
+  <si>
+    <t>cantunez@aes.com</t>
+  </si>
+  <si>
+    <t>julia bernstein 1001</t>
+  </si>
+  <si>
+    <t>tomas@rosschile.com</t>
+  </si>
+  <si>
+    <t>Francisca Morales</t>
+  </si>
+  <si>
+    <t>Santos apostoles 2220</t>
+  </si>
+  <si>
+    <t>fran.morales.r@gmail.com</t>
+  </si>
+  <si>
+    <t>imirbal@gmail.com</t>
+  </si>
+  <si>
+    <t>Charles Hamilton 10700</t>
+  </si>
+  <si>
+    <t>Tomas Silva</t>
+  </si>
+  <si>
+    <t>Cristian</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Ricardo</t>
+  </si>
+  <si>
+    <t>Isabella</t>
+  </si>
+  <si>
+    <t>Ricardo Beneyto</t>
   </si>
 </sst>
 </file>
@@ -472,7 +520,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="186">
+  <cellStyleXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -659,8 +707,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -704,8 +757,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="185" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="186">
+  <cellStyles count="191">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -798,6 +852,11 @@
     <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="187" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="189" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -905,24 +964,6 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
         <right/>
         <top style="thin">
           <color indexed="64"/>
@@ -988,6 +1029,22 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border>
         <bottom style="thin">
           <color indexed="64"/>
@@ -1002,12 +1059,14 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
+        <top/>
+        <bottom/>
+        <vertical style="thin">
           <color indexed="64"/>
-        </top>
-        <bottom style="thin">
+        </vertical>
+        <horizontal style="thin">
           <color indexed="64"/>
-        </bottom>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1415,28 +1474,27 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Ventas" displayName="Ventas" ref="B3:H23" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16" totalsRowBorderDxfId="15">
-  <autoFilter ref="B3:H23"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Ventas" displayName="Ventas" ref="B3:G27" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16" totalsRowBorderDxfId="15">
+  <autoFilter ref="B3:G27"/>
+  <tableColumns count="6">
     <tableColumn id="1" name="Cliente" dataDxfId="14"/>
     <tableColumn id="2" name="Producto" dataDxfId="13"/>
     <tableColumn id="3" name="Cantidad" dataDxfId="12"/>
     <tableColumn id="4" name="Fecha" dataDxfId="11"/>
     <tableColumn id="5" name="Estado Pago" dataDxfId="10"/>
     <tableColumn id="6" name="Estado Entrega" dataDxfId="9"/>
-    <tableColumn id="7" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B3:H7" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B3:H7" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
   <autoFilter ref="B3:H7"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Producto" dataDxfId="5"/>
-    <tableColumn id="2" name="Cantidad" dataDxfId="4"/>
-    <tableColumn id="3" name="Costo / unidad" dataDxfId="3"/>
+    <tableColumn id="1" name="Producto" dataDxfId="4"/>
+    <tableColumn id="2" name="Cantidad" dataDxfId="3"/>
+    <tableColumn id="3" name="Costo / unidad" dataDxfId="2"/>
     <tableColumn id="5" name="Total costo" dataDxfId="1">
       <calculatedColumnFormula>Table4[[#This Row],[Costo / unidad]]*Table4[[#This Row],[Cantidad]]</calculatedColumnFormula>
     </tableColumn>
@@ -1449,8 +1507,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="B3:E12" totalsRowShown="0">
-  <autoFilter ref="B3:E12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="B3:E17" totalsRowShown="0">
+  <autoFilter ref="B3:E17"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Nombre"/>
     <tableColumn id="2" name="Dirección"/>
@@ -1832,7 +1890,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="B5" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="15">
         <v>10500</v>
@@ -1909,7 +1967,7 @@
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" s="3">
         <v>6750</v>
@@ -2049,7 +2107,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="B6" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="3">
         <v>10</v>
@@ -2058,7 +2116,7 @@
         <v>42831</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2192,7 +2250,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2235,7 +2293,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="B6" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="22">
         <f>SUMIF(Compras[Producto], Insumos!F6, Compras[Cantidad])-SUMIF(Ventas[Producto], Inventario!B6, Ventas[Cantidad])</f>
@@ -2248,7 +2306,7 @@
       </c>
       <c r="C7" s="22">
         <f>SUMIF(Compras[Producto], Insumos!F7, Compras[Cantidad])-SUMIF(Ventas[Producto], Inventario!B7, Ventas[Cantidad])</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2266,7 +2324,7 @@
       </c>
       <c r="C9" s="22">
         <f>SUMIF(Compras[Producto], Insumos!F9, Compras[Cantidad])-SUMIF(Ventas[Producto], Inventario!B9, Ventas[Cantidad])</f>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2293,7 +2351,7 @@
       </c>
       <c r="C12" s="22">
         <f>SUMIF(Compras[Producto], Insumos!F12, Compras[Cantidad])-SUMIF(Ventas[Producto], Inventario!B12, Ventas[Cantidad])</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2311,10 +2369,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2331,12 +2389,12 @@
     <col min="17" max="17" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18">
+    <row r="1" spans="1:7" ht="18">
       <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:7">
       <c r="B3" s="14" t="s">
         <v>19</v>
       </c>
@@ -2355,11 +2413,8 @@
       <c r="G3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+    </row>
+    <row r="4" spans="1:7">
       <c r="B4" s="10" t="s">
         <v>13</v>
       </c>
@@ -2379,7 +2434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:7">
       <c r="B5" s="11" t="s">
         <v>21</v>
       </c>
@@ -2399,7 +2454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:7">
       <c r="B6" s="11" t="s">
         <v>21</v>
       </c>
@@ -2419,7 +2474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:7">
       <c r="B7" s="17" t="s">
         <v>21</v>
       </c>
@@ -2439,7 +2494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:7">
       <c r="B8" s="17" t="s">
         <v>22</v>
       </c>
@@ -2459,7 +2514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:7">
       <c r="B9" s="17" t="s">
         <v>23</v>
       </c>
@@ -2479,7 +2534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:7">
       <c r="B10" s="17" t="s">
         <v>37</v>
       </c>
@@ -2499,7 +2554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:7">
       <c r="B11" s="17" t="s">
         <v>37</v>
       </c>
@@ -2519,7 +2574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:7">
       <c r="B12" s="17" t="s">
         <v>37</v>
       </c>
@@ -2539,7 +2594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:7">
       <c r="B13" s="17" t="s">
         <v>37</v>
       </c>
@@ -2559,7 +2614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:7">
       <c r="B14" s="17" t="s">
         <v>13</v>
       </c>
@@ -2579,9 +2634,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:7">
       <c r="B15" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>3</v>
@@ -2599,9 +2654,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:7">
       <c r="B16" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>7</v>
@@ -2619,12 +2674,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:7">
       <c r="B17" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D17" s="18">
         <v>1</v>
@@ -2639,7 +2694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:7">
       <c r="B18" s="17" t="s">
         <v>13</v>
       </c>
@@ -2656,12 +2711,12 @@
         <v>0</v>
       </c>
       <c r="G18" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
       <c r="B19" s="17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>4</v>
@@ -2678,13 +2733,10 @@
       <c r="G19" s="20">
         <v>1</v>
       </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8">
+    </row>
+    <row r="20" spans="2:7">
       <c r="B20" s="17" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>3</v>
@@ -2701,14 +2753,13 @@
       <c r="G20" s="20">
         <v>1</v>
       </c>
-      <c r="H20" s="24"/>
-    </row>
-    <row r="21" spans="2:8">
+    </row>
+    <row r="21" spans="2:7">
       <c r="B21" s="29" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D21" s="18">
         <v>1</v>
@@ -2722,11 +2773,10 @@
       <c r="G21" s="20">
         <v>1</v>
       </c>
-      <c r="H21" s="24"/>
-    </row>
-    <row r="22" spans="2:8">
+    </row>
+    <row r="22" spans="2:7">
       <c r="B22" s="29" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>1</v>
@@ -2743,11 +2793,10 @@
       <c r="G22" s="20">
         <v>1</v>
       </c>
-      <c r="H22" s="24"/>
-    </row>
-    <row r="23" spans="2:8">
+    </row>
+    <row r="23" spans="2:7">
       <c r="B23" s="29" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>4</v>
@@ -2764,7 +2813,86 @@
       <c r="G23" s="20">
         <v>1</v>
       </c>
-      <c r="H23" s="24"/>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="18">
+        <v>1</v>
+      </c>
+      <c r="E24" s="19">
+        <v>43045</v>
+      </c>
+      <c r="F24" s="18">
+        <v>1</v>
+      </c>
+      <c r="G24" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="18">
+        <v>2</v>
+      </c>
+      <c r="E25" s="19">
+        <v>43045</v>
+      </c>
+      <c r="F25" s="18">
+        <v>1</v>
+      </c>
+      <c r="G25" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="18">
+        <v>1</v>
+      </c>
+      <c r="E26" s="19">
+        <v>43045</v>
+      </c>
+      <c r="F26" s="18">
+        <v>1</v>
+      </c>
+      <c r="G26" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="18">
+        <v>1</v>
+      </c>
+      <c r="E27" s="19">
+        <v>43045</v>
+      </c>
+      <c r="F27" s="18">
+        <v>0</v>
+      </c>
+      <c r="G27" s="20">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2825,7 +2953,7 @@
       </c>
       <c r="I3" s="3">
         <f>SUM(Table4[Total costo])</f>
-        <v>48825</v>
+        <v>52875</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2873,7 +3001,7 @@
       </c>
       <c r="F6" s="3">
         <f>SUMIF(Ventas[Producto],Calculos!E6,Ventas[Cantidad])*Precios!C6</f>
-        <v>48300</v>
+        <v>69000</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2905,7 +3033,7 @@
       </c>
       <c r="F8" s="3">
         <f>SUMIF(Ventas[Producto],Calculos!E8,Ventas[Cantidad])*Precios!C8</f>
-        <v>39600</v>
+        <v>49500</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2953,7 +3081,7 @@
       </c>
       <c r="F11" s="3">
         <f>SUMIF(Ventas[Producto],Calculos!E11,Ventas[Cantidad])*Precios!C11</f>
-        <v>6600</v>
+        <v>13200</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="18">
@@ -2969,7 +3097,7 @@
       </c>
       <c r="F12" s="3">
         <f>SUM(F3:F11)</f>
-        <v>244800</v>
+        <v>282000</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="30">
@@ -2978,7 +3106,7 @@
       </c>
       <c r="B17" s="33">
         <f>F12-C12-I3</f>
-        <v>-361525</v>
+        <v>-328375</v>
       </c>
       <c r="C17" t="s">
         <v>36</v>
@@ -3000,7 +3128,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3038,7 +3166,7 @@
         <v>17</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H3" s="15" t="s">
         <v>16</v>
@@ -3065,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H4" s="31">
         <v>42831</v>
@@ -3093,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H5" s="31">
         <v>42892</v>
@@ -3124,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H6" s="31">
         <v>42953</v>
@@ -3135,20 +3263,20 @@
         <v>25</v>
       </c>
       <c r="C7" s="18">
-        <v>2.6</v>
+        <v>8</v>
       </c>
       <c r="D7" s="20">
         <v>750</v>
       </c>
       <c r="E7" s="35">
         <f>Table4[[#This Row],[Costo / unidad]]*Table4[[#This Row],[Cantidad]]</f>
-        <v>1950</v>
+        <v>6000</v>
       </c>
       <c r="F7" s="24">
         <v>0</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H7" s="36">
         <v>43014</v>
@@ -3170,10 +3298,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3181,26 +3309,26 @@
     <col min="2" max="2" width="18.5" customWidth="1"/>
     <col min="3" max="3" width="43.1640625" customWidth="1"/>
     <col min="4" max="4" width="13.5" customWidth="1"/>
-    <col min="5" max="5" width="23.83203125" customWidth="1"/>
+    <col min="5" max="5" width="30.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18">
       <c r="A1" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
         <v>51</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>52</v>
-      </c>
-      <c r="D3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3208,7 +3336,7 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D4">
         <v>5622751654</v>
@@ -3220,13 +3348,13 @@
         <v>21</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D5">
         <v>56992255106</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3234,7 +3362,7 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3242,7 +3370,7 @@
         <v>23</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
@@ -3259,52 +3387,126 @@
     </row>
     <row r="9" spans="1:5">
       <c r="B9" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
+        <v>44</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="24">
+        <v>56977489239</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="B10" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D10" s="24">
         <v>56952088520</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="B11" s="24" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11" s="24">
         <v>56982834821</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="B12" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="24" t="s">
         <v>62</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>65</v>
       </c>
       <c r="D12" s="24">
         <v>56990409538</v>
       </c>
       <c r="E12" s="40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="B13" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="24" t="s">
         <v>66</v>
+      </c>
+      <c r="D13" s="24">
+        <v>56981298296</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="B14" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="24">
+        <v>569996791190</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="B15" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="24">
+        <v>56992762484</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="B16" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="24">
+        <v>56984411207</v>
+      </c>
+      <c r="E16" s="40" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="24"/>
+      <c r="E17" s="40" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -3312,10 +3514,17 @@
     <hyperlink ref="E10" r:id="rId1"/>
     <hyperlink ref="E11" r:id="rId2"/>
     <hyperlink ref="E12" r:id="rId3"/>
+    <hyperlink ref="E9" r:id="rId4"/>
+    <hyperlink ref="E13" r:id="rId5"/>
+    <hyperlink ref="E14" r:id="rId6"/>
+    <hyperlink ref="E15" r:id="rId7"/>
+    <hyperlink ref="E16" r:id="rId8"/>
+    <hyperlink ref="E17" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId10"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
